--- a/src/main/processing/Any2Json/examples/ReadDocument/data/Book2.xlsx
+++ b/src/main/processing/Any2Json/examples/ReadDocument/data/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Processing\ReadDocument\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD6BCB4-DEF0-4D41-944C-42DB7CED35AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88396211-E3F3-4FE9-9DBB-CE3BB8EF79A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5866D40D-7485-43E3-9270-58CD421A110C}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -541,6 +541,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A8FB23-29D1-4E09-AD4B-149AB295CE08}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,88 +1248,80 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="1" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
@@ -1332,35 +1331,35 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
@@ -1370,16 +1369,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
@@ -1389,16 +1388,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
@@ -1408,16 +1407,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
@@ -1427,73 +1426,73 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
       <c r="I33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
@@ -1503,92 +1502,92 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
       <c r="I37" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
       <c r="I39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
@@ -1598,16 +1597,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
@@ -1617,54 +1616,54 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
       <c r="I44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
@@ -1674,92 +1673,92 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
       <c r="I46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="3" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
       <c r="I47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
       <c r="I48" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
@@ -1769,16 +1768,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
@@ -1788,35 +1787,35 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="3" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
       <c r="F53" s="3" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
@@ -1826,35 +1825,35 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
       <c r="I54" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
@@ -1864,16 +1863,35 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
       <c r="I56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="2">
         <v>58</v>
       </c>
     </row>
@@ -1927,110 +1945,110 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
